--- a/import/teachers.xlsx
+++ b/import/teachers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nckh\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2ADF7BD-E89F-4B64-81CA-D1A250FB77D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8C1638-0A34-4F39-865E-0ADB645678B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A49A0DF7-8E6D-40C0-AD84-6F8A947676AA}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{A49A0DF7-8E6D-40C0-AD84-6F8A947676AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -57,33 +57,6 @@
     <t>birthdate</t>
   </si>
   <si>
-    <t>GV003</t>
-  </si>
-  <si>
-    <t>GV004</t>
-  </si>
-  <si>
-    <t>GV005</t>
-  </si>
-  <si>
-    <t>GV006</t>
-  </si>
-  <si>
-    <t>GV007</t>
-  </si>
-  <si>
-    <t>GV008</t>
-  </si>
-  <si>
-    <t>GV009</t>
-  </si>
-  <si>
-    <t>GV010</t>
-  </si>
-  <si>
-    <t>GV001</t>
-  </si>
-  <si>
     <t>gv001@school.com</t>
   </si>
   <si>
@@ -93,9 +66,6 @@
     <t>Công nghệ thông tin</t>
   </si>
   <si>
-    <t>GV002</t>
-  </si>
-  <si>
     <t>gv002@school.com</t>
   </si>
   <si>
@@ -148,6 +118,36 @@
   </si>
   <si>
     <t>Hoàng Thị J</t>
+  </si>
+  <si>
+    <t>GV0011</t>
+  </si>
+  <si>
+    <t>GV0012</t>
+  </si>
+  <si>
+    <t>GV0013</t>
+  </si>
+  <si>
+    <t>GV0014</t>
+  </si>
+  <si>
+    <t>GV0015</t>
+  </si>
+  <si>
+    <t>GV0016</t>
+  </si>
+  <si>
+    <t>GV0017</t>
+  </si>
+  <si>
+    <t>GV0018</t>
+  </si>
+  <si>
+    <t>GV0019</t>
+  </si>
+  <si>
+    <t>GV0020</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,22 +577,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>123456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>901111111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4">
         <v>29221</v>
@@ -600,22 +600,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>123456</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>902222222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4">
         <v>29984</v>
@@ -623,22 +623,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>123456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>903333333</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4">
         <v>28552</v>
@@ -646,22 +646,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>123456</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>904444444</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4">
         <v>31141</v>
@@ -669,22 +669,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>123456</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2">
         <v>905555555</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
         <v>29711</v>
@@ -692,22 +692,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>123456</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>906666666</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4">
         <v>30473</v>
@@ -715,22 +715,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>123456</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>907777777</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4">
         <v>30870</v>
@@ -738,22 +738,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>123456</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>908888888</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4">
         <v>29441</v>
@@ -761,22 +761,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>123456</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>909999999</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4">
         <v>30203</v>
@@ -784,22 +784,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2">
         <v>123456</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2">
         <v>910000000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4">
         <v>31330</v>
